--- a/build/classes/db/Check_IN_OUT.xlsx
+++ b/build/classes/db/Check_IN_OUT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Booking ID</t>
   </si>
@@ -23,10 +23,13 @@
     <t>Room Number</t>
   </si>
   <si>
+    <t xml:space="preserve"> Status</t>
+  </si>
+  <si>
     <t>Data Created</t>
   </si>
   <si>
-    <t>1055</t>
+    <t>1715</t>
   </si>
   <si>
     <t>Raweeroj   Thongdee</t>
@@ -35,7 +38,10 @@
     <t>1001</t>
   </si>
   <si>
-    <t>24-04-2020 04:03:43</t>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>24-04-2020 12:14:04</t>
   </si>
 </sst>
 </file>
@@ -80,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -89,7 +95,8 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="10.65625" collapsed="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="19.91796875" collapsed="false"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="14.15625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.66796875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.98828125" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.66796875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -105,19 +112,25 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/build/classes/db/Check_IN_OUT.xlsx
+++ b/build/classes/db/Check_IN_OUT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
   <si>
     <t>Booking ID</t>
   </si>
@@ -42,6 +42,27 @@
   </si>
   <si>
     <t>24-04-2020 12:14:04</t>
+  </si>
+  <si>
+    <t>1041</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>24-04-2020 12:48:27</t>
+  </si>
+  <si>
+    <t>1719</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>CHECK-IN</t>
+  </si>
+  <si>
+    <t>CHECK-OUT</t>
   </si>
 </sst>
 </file>
@@ -86,17 +107,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.65625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.91796875" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.15625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.98828125" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.66796875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.65625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.91796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.15625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.98828125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.66796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -110,7 +131,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -127,10 +148,44 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/build/classes/db/Check_IN_OUT.xlsx
+++ b/build/classes/db/Check_IN_OUT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="21">
   <si>
     <t>Booking ID</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>CHECK-OUT</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>24-04-2020 03:32:19</t>
+  </si>
+  <si>
+    <t>1573</t>
   </si>
 </sst>
 </file>
@@ -107,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -116,7 +128,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="10.65625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="19.91796875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="14.15625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.98828125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="19.66796875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -131,7 +143,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -148,7 +160,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -182,10 +194,44 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/build/classes/db/Check_IN_OUT.xlsx
+++ b/build/classes/db/Check_IN_OUT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="26">
   <si>
     <t>Booking ID</t>
   </si>
@@ -75,6 +75,21 @@
   </si>
   <si>
     <t>1573</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>24-04-2020 03:52:39</t>
+  </si>
+  <si>
+    <t>1189</t>
+  </si>
+  <si>
+    <t>3006</t>
   </si>
 </sst>
 </file>
@@ -119,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -143,7 +158,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -232,6 +247,40 @@
       </c>
       <c r="E6" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
